--- a/natmiOut/OldD0/LR-pairs_lrc2p/Sema4d-Cd72.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Sema4d-Cd72.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.48398272709982</v>
+        <v>68.50681433333334</v>
       </c>
       <c r="H2">
-        <v>6.48398272709982</v>
+        <v>205.520443</v>
       </c>
       <c r="I2">
-        <v>0.7372470794490444</v>
+        <v>0.9663865053086182</v>
       </c>
       <c r="J2">
-        <v>0.7372470794490444</v>
+        <v>0.9663865053086185</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.75301668471643</v>
+        <v>2.125569</v>
       </c>
       <c r="N2">
-        <v>1.75301668471643</v>
+        <v>6.376707</v>
       </c>
       <c r="O2">
-        <v>0.1642050611470483</v>
+        <v>0.1896427067757364</v>
       </c>
       <c r="P2">
-        <v>0.1642050611470483</v>
+        <v>0.1896427067757364</v>
       </c>
       <c r="Q2">
-        <v>11.36652990401912</v>
+        <v>145.615960835689</v>
       </c>
       <c r="R2">
-        <v>11.36652990401912</v>
+        <v>1310.543647521201</v>
       </c>
       <c r="S2">
-        <v>0.1210597017614131</v>
+        <v>0.183268152658271</v>
       </c>
       <c r="T2">
-        <v>0.1210597017614131</v>
+        <v>0.183268152658271</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.48398272709982</v>
+        <v>68.50681433333334</v>
       </c>
       <c r="H3">
-        <v>6.48398272709982</v>
+        <v>205.520443</v>
       </c>
       <c r="I3">
-        <v>0.7372470794490444</v>
+        <v>0.9663865053086182</v>
       </c>
       <c r="J3">
-        <v>0.7372470794490444</v>
+        <v>0.9663865053086185</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.50879390823358</v>
+        <v>6.543139666666666</v>
       </c>
       <c r="N3">
-        <v>6.50879390823358</v>
+        <v>19.629419</v>
       </c>
       <c r="O3">
-        <v>0.6096786819047973</v>
+        <v>0.5837771990456938</v>
       </c>
       <c r="P3">
-        <v>0.6096786819047973</v>
+        <v>0.5837771990456938</v>
       </c>
       <c r="Q3">
-        <v>42.20290727523906</v>
+        <v>448.2496543014018</v>
       </c>
       <c r="R3">
-        <v>42.20290727523906</v>
+        <v>4034.246888712617</v>
       </c>
       <c r="S3">
-        <v>0.4494838276366548</v>
+        <v>0.5641544072646216</v>
       </c>
       <c r="T3">
-        <v>0.4494838276366548</v>
+        <v>0.5641544072646218</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.48398272709982</v>
+        <v>68.50681433333334</v>
       </c>
       <c r="H4">
-        <v>6.48398272709982</v>
+        <v>205.520443</v>
       </c>
       <c r="I4">
-        <v>0.7372470794490444</v>
+        <v>0.9663865053086182</v>
       </c>
       <c r="J4">
-        <v>0.7372470794490444</v>
+        <v>0.9663865053086185</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.41396683114884</v>
+        <v>2.539573666666666</v>
       </c>
       <c r="N4">
-        <v>2.41396683114884</v>
+        <v>7.618720999999999</v>
       </c>
       <c r="O4">
-        <v>0.2261162569481542</v>
+        <v>0.2265800941785698</v>
       </c>
       <c r="P4">
-        <v>0.2261162569481542</v>
+        <v>0.2265800941785698</v>
       </c>
       <c r="Q4">
-        <v>15.65211923696096</v>
+        <v>173.9781016681559</v>
       </c>
       <c r="R4">
-        <v>15.65211923696096</v>
+        <v>1565.802915013403</v>
       </c>
       <c r="S4">
-        <v>0.1667035500509764</v>
+        <v>0.2189639453857256</v>
       </c>
       <c r="T4">
-        <v>0.1667035500509764</v>
+        <v>0.2189639453857257</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.15829786012552</v>
+        <v>1.228643</v>
       </c>
       <c r="H5">
-        <v>1.15829786012552</v>
+        <v>3.685929</v>
       </c>
       <c r="I5">
-        <v>0.13170172569099</v>
+        <v>0.01733176511849816</v>
       </c>
       <c r="J5">
-        <v>0.13170172569099</v>
+        <v>0.01733176511849817</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.75301668471643</v>
+        <v>2.125569</v>
       </c>
       <c r="N5">
-        <v>1.75301668471643</v>
+        <v>6.376707</v>
       </c>
       <c r="O5">
-        <v>0.1642050611470483</v>
+        <v>0.1896427067757364</v>
       </c>
       <c r="P5">
-        <v>0.1642050611470483</v>
+        <v>0.1896427067757364</v>
       </c>
       <c r="Q5">
-        <v>2.030515474671374</v>
+        <v>2.611565472867</v>
       </c>
       <c r="R5">
-        <v>2.030515474671374</v>
+        <v>23.504089255803</v>
       </c>
       <c r="S5">
-        <v>0.02162608992026079</v>
+        <v>0.003286842850273284</v>
       </c>
       <c r="T5">
-        <v>0.02162608992026079</v>
+        <v>0.003286842850273284</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.15829786012552</v>
+        <v>1.228643</v>
       </c>
       <c r="H6">
-        <v>1.15829786012552</v>
+        <v>3.685929</v>
       </c>
       <c r="I6">
-        <v>0.13170172569099</v>
+        <v>0.01733176511849816</v>
       </c>
       <c r="J6">
-        <v>0.13170172569099</v>
+        <v>0.01733176511849817</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.50879390823358</v>
+        <v>6.543139666666666</v>
       </c>
       <c r="N6">
-        <v>6.50879390823358</v>
+        <v>19.629419</v>
       </c>
       <c r="O6">
-        <v>0.6096786819047973</v>
+        <v>0.5837771990456938</v>
       </c>
       <c r="P6">
-        <v>0.6096786819047973</v>
+        <v>0.5837771990456938</v>
       </c>
       <c r="Q6">
-        <v>7.539122055904976</v>
+        <v>8.039182749472332</v>
       </c>
       <c r="R6">
-        <v>7.539122055904976</v>
+        <v>72.35264474525098</v>
       </c>
       <c r="S6">
-        <v>0.08029573452386994</v>
+        <v>0.01011788929539471</v>
       </c>
       <c r="T6">
-        <v>0.08029573452386994</v>
+        <v>0.01011788929539472</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.15829786012552</v>
+        <v>1.228643</v>
       </c>
       <c r="H7">
-        <v>1.15829786012552</v>
+        <v>3.685929</v>
       </c>
       <c r="I7">
-        <v>0.13170172569099</v>
+        <v>0.01733176511849816</v>
       </c>
       <c r="J7">
-        <v>0.13170172569099</v>
+        <v>0.01733176511849817</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.41396683114884</v>
+        <v>2.539573666666666</v>
       </c>
       <c r="N7">
-        <v>2.41396683114884</v>
+        <v>7.618720999999999</v>
       </c>
       <c r="O7">
-        <v>0.2261162569481542</v>
+        <v>0.2265800941785698</v>
       </c>
       <c r="P7">
-        <v>0.2261162569481542</v>
+        <v>0.2265800941785698</v>
       </c>
       <c r="Q7">
-        <v>2.796092614933684</v>
+        <v>3.120229408534333</v>
       </c>
       <c r="R7">
-        <v>2.796092614933684</v>
+        <v>28.08206467680899</v>
       </c>
       <c r="S7">
-        <v>0.02977990124685921</v>
+        <v>0.003927032972830164</v>
       </c>
       <c r="T7">
-        <v>0.02977990124685921</v>
+        <v>0.003927032972830165</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.15257653441344</v>
+        <v>1.154206333333333</v>
       </c>
       <c r="H8">
-        <v>1.15257653441344</v>
+        <v>3.462619</v>
       </c>
       <c r="I8">
-        <v>0.1310511948599656</v>
+        <v>0.01628172957288352</v>
       </c>
       <c r="J8">
-        <v>0.1310511948599656</v>
+        <v>0.01628172957288353</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.75301668471643</v>
+        <v>2.125569</v>
       </c>
       <c r="N8">
-        <v>1.75301668471643</v>
+        <v>6.376707</v>
       </c>
       <c r="O8">
-        <v>0.1642050611470483</v>
+        <v>0.1896427067757364</v>
       </c>
       <c r="P8">
-        <v>0.1642050611470483</v>
+        <v>0.1896427067757364</v>
       </c>
       <c r="Q8">
-        <v>2.020485895239401</v>
+        <v>2.453345201737</v>
       </c>
       <c r="R8">
-        <v>2.020485895239401</v>
+        <v>22.080106815633</v>
       </c>
       <c r="S8">
-        <v>0.0215192694653744</v>
+        <v>0.003087711267192187</v>
       </c>
       <c r="T8">
-        <v>0.0215192694653744</v>
+        <v>0.003087711267192187</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.15257653441344</v>
+        <v>1.154206333333333</v>
       </c>
       <c r="H9">
-        <v>1.15257653441344</v>
+        <v>3.462619</v>
       </c>
       <c r="I9">
-        <v>0.1310511948599656</v>
+        <v>0.01628172957288352</v>
       </c>
       <c r="J9">
-        <v>0.1310511948599656</v>
+        <v>0.01628172957288353</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.50879390823358</v>
+        <v>6.543139666666666</v>
       </c>
       <c r="N9">
-        <v>6.50879390823358</v>
+        <v>19.629419</v>
       </c>
       <c r="O9">
-        <v>0.6096786819047973</v>
+        <v>0.5837771990456938</v>
       </c>
       <c r="P9">
-        <v>0.6096786819047973</v>
+        <v>0.5837771990456938</v>
       </c>
       <c r="Q9">
-        <v>7.501883125963169</v>
+        <v>7.552133243151222</v>
       </c>
       <c r="R9">
-        <v>7.501883125963169</v>
+        <v>67.969199188361</v>
       </c>
       <c r="S9">
-        <v>0.07989911974427258</v>
+        <v>0.009504902485677385</v>
       </c>
       <c r="T9">
-        <v>0.07989911974427258</v>
+        <v>0.009504902485677386</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.15257653441344</v>
+        <v>1.154206333333333</v>
       </c>
       <c r="H10">
-        <v>1.15257653441344</v>
+        <v>3.462619</v>
       </c>
       <c r="I10">
-        <v>0.1310511948599656</v>
+        <v>0.01628172957288352</v>
       </c>
       <c r="J10">
-        <v>0.1310511948599656</v>
+        <v>0.01628172957288353</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.41396683114884</v>
+        <v>2.539573666666666</v>
       </c>
       <c r="N10">
-        <v>2.41396683114884</v>
+        <v>7.618720999999999</v>
       </c>
       <c r="O10">
-        <v>0.2261162569481542</v>
+        <v>0.2265800941785698</v>
       </c>
       <c r="P10">
-        <v>0.2261162569481542</v>
+        <v>0.2265800941785698</v>
       </c>
       <c r="Q10">
-        <v>2.782281524434524</v>
+        <v>2.931192010033222</v>
       </c>
       <c r="R10">
-        <v>2.782281524434524</v>
+        <v>26.380728090299</v>
       </c>
       <c r="S10">
-        <v>0.02963280565031861</v>
+        <v>0.003689115820013954</v>
       </c>
       <c r="T10">
-        <v>0.02963280565031861</v>
+        <v>0.003689115820013954</v>
       </c>
     </row>
   </sheetData>
